--- a/data_excel/516.xlsx
+++ b/data_excel/516.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>小朋友</t>
   </si>
@@ -109,6 +109,10 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -527,15 +531,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -549,13 +550,13 @@
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -567,15 +568,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -589,13 +590,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>
@@ -609,25 +610,36 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
     </row>
